--- a/biology/Botanique/Croton_morifolius/Croton_morifolius.xlsx
+++ b/biology/Botanique/Croton_morifolius/Croton_morifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton morifolius est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae présente du Mexique au Venezuela.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 oct. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 oct. 2011) :
 Croton morifolius var. morifolius
 Croton morifolius var. sphaerocarpus (Kunth) Müll.Arg.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oxydectes morifolia (Willd.) Kuntze
 Croton sericeus Schltdl. &amp; Cham. (nom illégitime, synonyme de la première variété)
@@ -581,7 +597,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Croton morifolius var. obtusifolius Müll.Arg. n'est pas acceptée, elle est actuellement considérée comme variété de Croton mazapensis : Croton mazapensis var. obtusifolius (Müll.Arg.) G.L.Webster
 Croton morifolius var. brandegeeanus (Croizat) G.L.Webster n'est plus acceptée, ce nom est synonyme à Croton flavescens Greenm.</t>
